--- a/xlsx/1917年_intext.xlsx
+++ b/xlsx/1917年_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="660">
   <si>
     <t>1917年</t>
   </si>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B%E7%B4%80%E5%85%83</t>
   </si>
   <si>
-    <t>民國紀元</t>
+    <t>民国纪元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%AD%A3</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%AE%9A</t>
   </si>
   <si>
-    <t>啟定</t>
+    <t>启定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>1917年體育</t>
+    <t>1917年体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E9%A6%99%E6%B8%AF</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5%E6%9B%86</t>
   </si>
   <si>
-    <t>儒略曆</t>
+    <t>儒略历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%E6%9C%8823%E6%97%A5</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E4%BA%8C%E6%9C%88%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>俄國二月革命</t>
+    <t>俄国二月革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3%E6%9C%889%E6%97%A5</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -761,19 +761,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%94%E4%B8%96_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>喬治五世 (英國)</t>
+    <t>乔治五世 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>大英帝國勳章</t>
+    <t>大英帝国勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%8E%88%E5%8B%B3%E5%8F%8A%E5%98%89%E7%8D%8E%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>英國授勳及嘉獎制度</t>
+    <t>英国授勳及嘉奖制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/6%E6%9C%886%E6%97%A5</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%8B%B3%E5%BE%A9%E8%BE%9F</t>
   </si>
   <si>
-    <t>張勳復辟</t>
+    <t>张勳复辟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7%E6%9C%882%E6%97%A5</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%90%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>海琛艦</t>
+    <t>海琛舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E7%82%AF%E6%98%8E</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B9%BC%E5%A0%AF</t>
   </si>
   <si>
-    <t>唐繼堯</t>
+    <t>唐继尧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8%E6%9C%8814%E6%97%A5</t>
@@ -1271,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%BE%A9%E5%88%9D</t>
   </si>
   <si>
-    <t>陳復初</t>
+    <t>陈复初</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B5%E6%81%92%E9%94%A1</t>
@@ -1313,9 +1313,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA</t>
   </si>
   <si>
@@ -1367,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>中華民國國務總理</t>
+    <t>中华民国国务总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/11%E6%9C%8816%E6%97%A5</t>
@@ -1379,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E8%92%99%E6%A2%AD</t>
@@ -1451,13 +1448,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E7%BE%8E%E6%B4%B5</t>
   </si>
   <si>
-    <t>韓美洵</t>
+    <t>韩美洵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%BC%94%E6%94%BF%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港輔政司</t>
+    <t>香港辅政司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4</t>
@@ -1475,19 +1472,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國總統府</t>
+    <t>中华民国总统府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E4%BA%A4%E6%B5%81%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>海峽交流基金會</t>
+    <t>海峡交流基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B4</t>
@@ -1505,13 +1502,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%B0%B8%E6%85%B6</t>
   </si>
   <si>
-    <t>王永慶</t>
+    <t>王永庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A1%91%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>台塑集團</t>
+    <t>台塑集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4</t>
@@ -1541,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%8B%89%C2%B7%E8%B2%BB%E8%8C%B2%E6%BD%94%E6%8B%89</t>
   </si>
   <si>
-    <t>艾拉·費茲潔拉</t>
+    <t>艾拉·费兹洁拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
@@ -1613,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E9%AD%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>安德魯·魏斯</t>
+    <t>安德鲁·魏斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E5%AE%9E%E4%B8%BB%E4%B9%89</t>
@@ -1625,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%AB%E5%AE%B6</t>
   </si>
   <si>
-    <t>畫家</t>
+    <t>画家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4</t>
@@ -1655,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2%E5%89%AF%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>中華人民共和國國務院副總理</t>
+    <t>中华人民共和国国务院副总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4</t>
@@ -1673,13 +1670,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8F%AF%E4%BB%95</t>
   </si>
   <si>
-    <t>馬可仕</t>
+    <t>马可仕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4</t>
@@ -1697,13 +1694,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%A3%8A%E8%8F%AF</t>
   </si>
   <si>
-    <t>戴磊華</t>
+    <t>戴磊华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%AD%A6%E5%8B%99%E8%99%95%E8%99%95%E9%95%B7</t>
   </si>
   <si>
-    <t>香港警務處處長</t>
+    <t>香港警务处处长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4</t>
@@ -1721,21 +1718,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%85%A5</t>
   </si>
   <si>
-    <t>李煥</t>
+    <t>李焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%A1%8C%E6%94%BF%E9%99%A2%E9%99%A2%E9%95%B7</t>
   </si>
   <si>
-    <t>中華民國行政院院長</t>
+    <t>中华民国行政院院长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4</t>
   </si>
   <si>
@@ -1757,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>大韓民國總統</t>
+    <t>大韩民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/11%E6%9C%8828%E6%97%A5</t>
@@ -1895,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%B0%B8%E7%A6%8F</t>
   </si>
   <si>
-    <t>劉永福</t>
+    <t>刘永福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1837%E5%B9%B4</t>
@@ -1919,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%C2%B7%E5%96%AC%E6%99%AE%E6%9E%97</t>
   </si>
   <si>
-    <t>斯科特·喬普林</t>
+    <t>斯科特·乔普林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%9B%B2%E5%AE%B6</t>
@@ -1949,9 +1943,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1834%E5%B9%B4</t>
   </si>
   <si>
@@ -2003,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E6%9C%83%E8%88%87%E7%B4%85%E6%96%B0%E6%9C%88%E6%9C%83%E5%9C%8B%E9%9A%9B%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字會與紅新月會國際聯合會</t>
+    <t>红十字会与红新月会国际联合会</t>
   </si>
 </sst>
 </file>
@@ -8609,7 +8600,7 @@
         <v>431</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>194</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8635,10 +8626,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
-      </c>
-      <c r="F217" t="s">
-        <v>434</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8664,10 +8655,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8693,10 +8684,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8722,10 +8713,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
         <v>439</v>
-      </c>
-      <c r="F220" t="s">
-        <v>440</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -8751,10 +8742,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
         <v>441</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8780,10 +8771,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
         <v>443</v>
-      </c>
-      <c r="F222" t="s">
-        <v>444</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8809,10 +8800,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
         <v>445</v>
-      </c>
-      <c r="F223" t="s">
-        <v>446</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8838,10 +8829,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
         <v>447</v>
-      </c>
-      <c r="F224" t="s">
-        <v>448</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8867,10 +8858,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
         <v>449</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8896,10 +8887,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
         <v>451</v>
-      </c>
-      <c r="F226" t="s">
-        <v>452</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8925,10 +8916,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
         <v>453</v>
-      </c>
-      <c r="F227" t="s">
-        <v>454</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8954,10 +8945,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
         <v>455</v>
-      </c>
-      <c r="F228" t="s">
-        <v>456</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8983,10 +8974,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
         <v>457</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9012,10 +9003,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
         <v>459</v>
-      </c>
-      <c r="F230" t="s">
-        <v>460</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9041,10 +9032,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
         <v>461</v>
-      </c>
-      <c r="F231" t="s">
-        <v>462</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9070,10 +9061,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
         <v>463</v>
-      </c>
-      <c r="F232" t="s">
-        <v>464</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9099,10 +9090,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
         <v>465</v>
-      </c>
-      <c r="F233" t="s">
-        <v>466</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9128,10 +9119,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
         <v>467</v>
-      </c>
-      <c r="F234" t="s">
-        <v>468</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9157,10 +9148,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
         <v>469</v>
-      </c>
-      <c r="F235" t="s">
-        <v>470</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9186,10 +9177,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
         <v>471</v>
-      </c>
-      <c r="F236" t="s">
-        <v>472</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9215,10 +9206,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
         <v>473</v>
-      </c>
-      <c r="F237" t="s">
-        <v>474</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9244,10 +9235,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
         <v>475</v>
-      </c>
-      <c r="F238" t="s">
-        <v>476</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9273,10 +9264,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
         <v>477</v>
-      </c>
-      <c r="F239" t="s">
-        <v>478</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9302,10 +9293,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
         <v>479</v>
-      </c>
-      <c r="F240" t="s">
-        <v>480</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9331,10 +9322,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
         <v>481</v>
-      </c>
-      <c r="F241" t="s">
-        <v>482</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9360,10 +9351,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
         <v>483</v>
-      </c>
-      <c r="F242" t="s">
-        <v>484</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9389,10 +9380,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
         <v>485</v>
-      </c>
-      <c r="F243" t="s">
-        <v>486</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9418,10 +9409,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
         <v>487</v>
-      </c>
-      <c r="F244" t="s">
-        <v>488</v>
       </c>
       <c r="G244" t="n">
         <v>4</v>
@@ -9447,10 +9438,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
         <v>489</v>
-      </c>
-      <c r="F245" t="s">
-        <v>490</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9476,10 +9467,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
         <v>491</v>
-      </c>
-      <c r="F246" t="s">
-        <v>492</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9505,10 +9496,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
         <v>493</v>
-      </c>
-      <c r="F247" t="s">
-        <v>494</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -9534,10 +9525,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
         <v>495</v>
-      </c>
-      <c r="F248" t="s">
-        <v>496</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9563,10 +9554,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
         <v>497</v>
-      </c>
-      <c r="F249" t="s">
-        <v>498</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9592,10 +9583,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
         <v>499</v>
-      </c>
-      <c r="F250" t="s">
-        <v>500</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9621,10 +9612,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
         <v>501</v>
-      </c>
-      <c r="F251" t="s">
-        <v>502</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9650,10 +9641,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
         <v>503</v>
-      </c>
-      <c r="F252" t="s">
-        <v>504</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9679,10 +9670,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
         <v>505</v>
-      </c>
-      <c r="F253" t="s">
-        <v>506</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9708,10 +9699,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
         <v>507</v>
-      </c>
-      <c r="F254" t="s">
-        <v>508</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9766,10 +9757,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>508</v>
+      </c>
+      <c r="F256" t="s">
         <v>509</v>
-      </c>
-      <c r="F256" t="s">
-        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9795,10 +9786,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>510</v>
+      </c>
+      <c r="F257" t="s">
         <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9824,10 +9815,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
         <v>513</v>
-      </c>
-      <c r="F258" t="s">
-        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9853,10 +9844,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>514</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
-      </c>
-      <c r="F259" t="s">
-        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9882,10 +9873,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
-      </c>
-      <c r="F260" t="s">
-        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9911,10 +9902,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>518</v>
+      </c>
+      <c r="F261" t="s">
         <v>519</v>
-      </c>
-      <c r="F261" t="s">
-        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9940,10 +9931,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>520</v>
+      </c>
+      <c r="F262" t="s">
         <v>521</v>
-      </c>
-      <c r="F262" t="s">
-        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9969,10 +9960,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>522</v>
+      </c>
+      <c r="F263" t="s">
         <v>523</v>
-      </c>
-      <c r="F263" t="s">
-        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9998,10 +9989,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" t="s">
         <v>525</v>
-      </c>
-      <c r="F264" t="s">
-        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10027,10 +10018,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>526</v>
+      </c>
+      <c r="F265" t="s">
         <v>527</v>
-      </c>
-      <c r="F265" t="s">
-        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10056,10 +10047,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>528</v>
+      </c>
+      <c r="F266" t="s">
         <v>529</v>
-      </c>
-      <c r="F266" t="s">
-        <v>530</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10085,10 +10076,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" t="s">
         <v>531</v>
-      </c>
-      <c r="F267" t="s">
-        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10114,10 +10105,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>532</v>
+      </c>
+      <c r="F268" t="s">
         <v>533</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10143,10 +10134,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>534</v>
+      </c>
+      <c r="F269" t="s">
         <v>535</v>
-      </c>
-      <c r="F269" t="s">
-        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10172,10 +10163,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>536</v>
+      </c>
+      <c r="F270" t="s">
         <v>537</v>
-      </c>
-      <c r="F270" t="s">
-        <v>538</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10201,10 +10192,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>538</v>
+      </c>
+      <c r="F271" t="s">
         <v>539</v>
-      </c>
-      <c r="F271" t="s">
-        <v>540</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10230,10 +10221,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>540</v>
+      </c>
+      <c r="F272" t="s">
         <v>541</v>
-      </c>
-      <c r="F272" t="s">
-        <v>542</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10259,10 +10250,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>542</v>
+      </c>
+      <c r="F273" t="s">
         <v>543</v>
-      </c>
-      <c r="F273" t="s">
-        <v>544</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10288,10 +10279,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>544</v>
+      </c>
+      <c r="F274" t="s">
         <v>545</v>
-      </c>
-      <c r="F274" t="s">
-        <v>546</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10317,10 +10308,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>546</v>
+      </c>
+      <c r="F275" t="s">
         <v>547</v>
-      </c>
-      <c r="F275" t="s">
-        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10346,10 +10337,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>548</v>
+      </c>
+      <c r="F276" t="s">
         <v>549</v>
-      </c>
-      <c r="F276" t="s">
-        <v>550</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10375,10 +10366,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>550</v>
+      </c>
+      <c r="F277" t="s">
         <v>551</v>
-      </c>
-      <c r="F277" t="s">
-        <v>552</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10404,10 +10395,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>552</v>
+      </c>
+      <c r="F278" t="s">
         <v>553</v>
-      </c>
-      <c r="F278" t="s">
-        <v>554</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10433,10 +10424,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>554</v>
+      </c>
+      <c r="F279" t="s">
         <v>555</v>
-      </c>
-      <c r="F279" t="s">
-        <v>556</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10462,10 +10453,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
         <v>557</v>
-      </c>
-      <c r="F280" t="s">
-        <v>558</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10491,10 +10482,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>558</v>
+      </c>
+      <c r="F281" t="s">
         <v>559</v>
-      </c>
-      <c r="F281" t="s">
-        <v>560</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10520,10 +10511,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>560</v>
+      </c>
+      <c r="F282" t="s">
         <v>561</v>
-      </c>
-      <c r="F282" t="s">
-        <v>562</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10549,10 +10540,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>562</v>
+      </c>
+      <c r="F283" t="s">
         <v>563</v>
-      </c>
-      <c r="F283" t="s">
-        <v>564</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10578,10 +10569,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>564</v>
+      </c>
+      <c r="F284" t="s">
         <v>565</v>
-      </c>
-      <c r="F284" t="s">
-        <v>566</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10607,10 +10598,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>566</v>
+      </c>
+      <c r="F285" t="s">
         <v>567</v>
-      </c>
-      <c r="F285" t="s">
-        <v>568</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10636,10 +10627,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>568</v>
+      </c>
+      <c r="F286" t="s">
         <v>569</v>
-      </c>
-      <c r="F286" t="s">
-        <v>570</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10665,10 +10656,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>174</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10694,10 +10685,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10723,10 +10714,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10752,10 +10743,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10781,10 +10772,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10810,10 +10801,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10839,10 +10830,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10868,10 +10859,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10897,10 +10888,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10926,10 +10917,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -10955,10 +10946,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10984,10 +10975,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11013,10 +11004,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11042,10 +11033,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11071,10 +11062,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11100,10 +11091,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11129,10 +11120,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11158,10 +11149,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11187,10 +11178,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11216,10 +11207,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11245,10 +11236,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11274,10 +11265,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11303,10 +11294,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11332,10 +11323,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11361,10 +11352,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11390,10 +11381,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F312" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G312" t="n">
         <v>28</v>
@@ -11419,10 +11410,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F313" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11448,10 +11439,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F314" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11477,10 +11468,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F315" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11506,10 +11497,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F316" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11535,10 +11526,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F317" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11564,10 +11555,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F318" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11593,10 +11584,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F319" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11622,10 +11613,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F320" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11651,10 +11642,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F321" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11680,10 +11671,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F322" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11709,10 +11700,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F323" t="s">
-        <v>644</v>
+        <v>453</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11738,10 +11729,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F324" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11767,10 +11758,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F325" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11796,10 +11787,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F326" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11825,10 +11816,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F327" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -11854,10 +11845,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F328" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11883,10 +11874,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>5</v>
@@ -11912,10 +11903,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F330" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11941,10 +11932,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F331" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11970,10 +11961,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F332" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -11999,10 +11990,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F333" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
